--- a/data/pca/factorExposure/factorExposure_2009-03-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-04.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01636749147356782</v>
+        <v>-0.01604387487352895</v>
       </c>
       <c r="C2">
-        <v>-0.002044554495543067</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001524751935108132</v>
+      </c>
+      <c r="D2">
+        <v>0.01060857925719928</v>
+      </c>
+      <c r="E2">
+        <v>0.01833949833705419</v>
+      </c>
+      <c r="F2">
+        <v>-0.006418082907596175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08147515101077844</v>
+        <v>-0.084927882425854</v>
       </c>
       <c r="C4">
-        <v>-0.01953241491716703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01573113970566967</v>
+      </c>
+      <c r="D4">
+        <v>0.0856988905943409</v>
+      </c>
+      <c r="E4">
+        <v>-0.05256972242886488</v>
+      </c>
+      <c r="F4">
+        <v>0.01487717681676551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001550252169385435</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001154860840567396</v>
+      </c>
+      <c r="D5">
+        <v>0.001284057597397687</v>
+      </c>
+      <c r="E5">
+        <v>-0.001345805831305622</v>
+      </c>
+      <c r="F5">
+        <v>-0.0033820440438653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1644762602192789</v>
+        <v>-0.1684433385578284</v>
       </c>
       <c r="C6">
-        <v>-0.04028303946874139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03743128268891659</v>
+      </c>
+      <c r="D6">
+        <v>-0.009384741730841611</v>
+      </c>
+      <c r="E6">
+        <v>-0.05927767344163749</v>
+      </c>
+      <c r="F6">
+        <v>0.00822703435618454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05387030238158181</v>
+        <v>-0.0587688449381085</v>
       </c>
       <c r="C7">
-        <v>-0.001411241844231668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.00123800986288574</v>
+      </c>
+      <c r="D7">
+        <v>0.05642782316552949</v>
+      </c>
+      <c r="E7">
+        <v>-0.03633400408462584</v>
+      </c>
+      <c r="F7">
+        <v>0.05572085338951353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05718037479725704</v>
+        <v>-0.05408900205540481</v>
       </c>
       <c r="C8">
-        <v>0.009364031559027465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01097408280371123</v>
+      </c>
+      <c r="D8">
+        <v>0.03794720153021057</v>
+      </c>
+      <c r="E8">
+        <v>0.02237698386625209</v>
+      </c>
+      <c r="F8">
+        <v>-0.02052107427194658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06229155521989974</v>
+        <v>-0.06603556090058914</v>
       </c>
       <c r="C9">
-        <v>-0.01481942430538979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01101040441504014</v>
+      </c>
+      <c r="D9">
+        <v>0.09133790774248661</v>
+      </c>
+      <c r="E9">
+        <v>-0.07134670144576243</v>
+      </c>
+      <c r="F9">
+        <v>0.02090119046730059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09957335142666977</v>
+        <v>-0.0951372108791906</v>
       </c>
       <c r="C10">
-        <v>-0.02679443885155976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.02722861082726679</v>
+      </c>
+      <c r="D10">
+        <v>-0.1497868173250711</v>
+      </c>
+      <c r="E10">
+        <v>0.0953802497657512</v>
+      </c>
+      <c r="F10">
+        <v>-0.003881036432414668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08247801382612686</v>
+        <v>-0.08027927776133878</v>
       </c>
       <c r="C11">
-        <v>-0.01647916135441923</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.0118410430285615</v>
+      </c>
+      <c r="D11">
+        <v>0.1333098134326985</v>
+      </c>
+      <c r="E11">
+        <v>-0.03809429042052298</v>
+      </c>
+      <c r="F11">
+        <v>-0.006923304061403635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08747888096014597</v>
+        <v>-0.08287066289538847</v>
       </c>
       <c r="C12">
-        <v>-0.01432105558391698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.009068788119845773</v>
+      </c>
+      <c r="D12">
+        <v>0.1519233643946651</v>
+      </c>
+      <c r="E12">
+        <v>-0.04072977226126635</v>
+      </c>
+      <c r="F12">
+        <v>0.006353321875393168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04176564039758236</v>
+        <v>-0.04208787043394216</v>
       </c>
       <c r="C13">
-        <v>-0.007574251018837715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003679678842611147</v>
+      </c>
+      <c r="D13">
+        <v>0.06455591704081523</v>
+      </c>
+      <c r="E13">
+        <v>-0.01005666178100163</v>
+      </c>
+      <c r="F13">
+        <v>0.01791381396854004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02039023815551343</v>
+        <v>-0.02271845488175012</v>
       </c>
       <c r="C14">
-        <v>-0.01516135925909642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01400107899646686</v>
+      </c>
+      <c r="D14">
+        <v>0.0448332711704005</v>
+      </c>
+      <c r="E14">
+        <v>-0.03305201446224831</v>
+      </c>
+      <c r="F14">
+        <v>-0.0002830653804593092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03007690741965989</v>
+        <v>-0.03224170275010498</v>
       </c>
       <c r="C15">
-        <v>-0.007683534692323303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.006222747128796981</v>
+      </c>
+      <c r="D15">
+        <v>0.05243788544493184</v>
+      </c>
+      <c r="E15">
+        <v>-0.02675984848266656</v>
+      </c>
+      <c r="F15">
+        <v>0.01479732626339548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06280790567018925</v>
+        <v>-0.06303793982251268</v>
       </c>
       <c r="C16">
-        <v>-0.00482357770358483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0004023760550714158</v>
+      </c>
+      <c r="D16">
+        <v>0.1437385552574284</v>
+      </c>
+      <c r="E16">
+        <v>-0.05032153826868047</v>
+      </c>
+      <c r="F16">
+        <v>-0.01386335919495469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.003483486399082462</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.001346100633883117</v>
+      </c>
+      <c r="D17">
+        <v>0.003169079600399311</v>
+      </c>
+      <c r="E17">
+        <v>0.0009207024775766737</v>
+      </c>
+      <c r="F17">
+        <v>-0.007743288133593845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.03335125921882335</v>
+        <v>-0.04809419348667316</v>
       </c>
       <c r="C18">
-        <v>-0.0004480485719169673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.0009210586657776564</v>
+      </c>
+      <c r="D18">
+        <v>0.03373116363405868</v>
+      </c>
+      <c r="E18">
+        <v>0.01423753549458801</v>
+      </c>
+      <c r="F18">
+        <v>-0.000883075574722551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06070362500710494</v>
+        <v>-0.05999031520121657</v>
       </c>
       <c r="C20">
-        <v>-0.004943534182248658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.002207728417763177</v>
+      </c>
+      <c r="D20">
+        <v>0.09662678009979939</v>
+      </c>
+      <c r="E20">
+        <v>-0.06769299212356161</v>
+      </c>
+      <c r="F20">
+        <v>-0.008706470426436035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04171833471440187</v>
+        <v>-0.04391197264065132</v>
       </c>
       <c r="C21">
-        <v>-0.01097410053396365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.008432601879663241</v>
+      </c>
+      <c r="D21">
+        <v>0.05463719811630591</v>
+      </c>
+      <c r="E21">
+        <v>0.01092721748485594</v>
+      </c>
+      <c r="F21">
+        <v>0.006266785086024376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04689618345583443</v>
+        <v>-0.04563602841299576</v>
       </c>
       <c r="C22">
-        <v>-0.005513649579549846</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.003028357931015813</v>
+      </c>
+      <c r="D22">
+        <v>0.02686811089127547</v>
+      </c>
+      <c r="E22">
+        <v>0.03290989262893735</v>
+      </c>
+      <c r="F22">
+        <v>-0.1314553820083874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04690524367896222</v>
+        <v>-0.04564378308200606</v>
       </c>
       <c r="C23">
-        <v>-0.005516315438972423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.003030766102777172</v>
+      </c>
+      <c r="D23">
+        <v>0.02686218318543713</v>
+      </c>
+      <c r="E23">
+        <v>0.03293465081708954</v>
+      </c>
+      <c r="F23">
+        <v>-0.1314946270102007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07034722779467449</v>
+        <v>-0.06937414918463632</v>
       </c>
       <c r="C24">
-        <v>-0.005698987769499089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.001545525655504841</v>
+      </c>
+      <c r="D24">
+        <v>0.1354146885546382</v>
+      </c>
+      <c r="E24">
+        <v>-0.04481975952630297</v>
+      </c>
+      <c r="F24">
+        <v>0.003799458530081039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07669241616474295</v>
+        <v>-0.07457145148344811</v>
       </c>
       <c r="C25">
-        <v>-0.008752502098838577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004667664181692381</v>
+      </c>
+      <c r="D25">
+        <v>0.1232091865720272</v>
+      </c>
+      <c r="E25">
+        <v>-0.02741645804642739</v>
+      </c>
+      <c r="F25">
+        <v>0.02217609359012222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05639895364713889</v>
+        <v>-0.0608394946140057</v>
       </c>
       <c r="C26">
-        <v>-0.01864966692228622</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01613914784770255</v>
+      </c>
+      <c r="D26">
+        <v>0.0663517352039201</v>
+      </c>
+      <c r="E26">
+        <v>-0.005223178487052313</v>
+      </c>
+      <c r="F26">
+        <v>-0.006448064765898553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1604476753511881</v>
+        <v>-0.1643365514470535</v>
       </c>
       <c r="C28">
-        <v>-0.03362484062038682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.03532049865070835</v>
+      </c>
+      <c r="D28">
+        <v>-0.2402869203549389</v>
+      </c>
+      <c r="E28">
+        <v>0.02976459594870517</v>
+      </c>
+      <c r="F28">
+        <v>0.05250981064233171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02548023418681383</v>
+        <v>-0.02764025895800918</v>
       </c>
       <c r="C29">
-        <v>-0.009968688021317661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.009392510593690744</v>
+      </c>
+      <c r="D29">
+        <v>0.04258220867043832</v>
+      </c>
+      <c r="E29">
+        <v>0.003323085512734574</v>
+      </c>
+      <c r="F29">
+        <v>-0.02124127096101617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04352851116477029</v>
+        <v>-0.04477300500619331</v>
       </c>
       <c r="C30">
-        <v>-0.004277594586746765</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.001209528137144694</v>
+      </c>
+      <c r="D30">
+        <v>0.07940917485902711</v>
+      </c>
+      <c r="E30">
+        <v>-0.08963848333498077</v>
+      </c>
+      <c r="F30">
+        <v>0.07373450246668527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05234508746582747</v>
+        <v>-0.05216768263092379</v>
       </c>
       <c r="C31">
-        <v>-0.01990554352215631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01756793480265612</v>
+      </c>
+      <c r="D31">
+        <v>0.03730962453265774</v>
+      </c>
+      <c r="E31">
+        <v>-0.01139151988985387</v>
+      </c>
+      <c r="F31">
+        <v>-0.03241379032064234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04381575173755479</v>
+        <v>-0.04894816880254622</v>
       </c>
       <c r="C32">
-        <v>-0.001359250884025769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001237972944526622</v>
+      </c>
+      <c r="D32">
+        <v>0.04104580512517407</v>
+      </c>
+      <c r="E32">
+        <v>-0.01630046930268612</v>
+      </c>
+      <c r="F32">
+        <v>-0.02058095928796841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08154064738068427</v>
+        <v>-0.0842275642558709</v>
       </c>
       <c r="C33">
-        <v>-0.01308167479226595</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008123313547918941</v>
+      </c>
+      <c r="D33">
+        <v>0.1176122290431944</v>
+      </c>
+      <c r="E33">
+        <v>-0.05174313413097829</v>
+      </c>
+      <c r="F33">
+        <v>-0.009900084103979261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05889314998933661</v>
+        <v>-0.05898779425288234</v>
       </c>
       <c r="C34">
-        <v>-0.01400310774262877</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.009587249556577311</v>
+      </c>
+      <c r="D34">
+        <v>0.1258090422395041</v>
+      </c>
+      <c r="E34">
+        <v>-0.04714326017321854</v>
+      </c>
+      <c r="F34">
+        <v>0.0265591248826717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02693367828058856</v>
+        <v>-0.02817654040040317</v>
       </c>
       <c r="C35">
-        <v>-0.005315966935066529</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.004516833918090644</v>
+      </c>
+      <c r="D35">
+        <v>0.01769921628077727</v>
+      </c>
+      <c r="E35">
+        <v>-0.01198596119468776</v>
+      </c>
+      <c r="F35">
+        <v>-0.01854373787945741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02416807019834325</v>
+        <v>-0.02796107776663699</v>
       </c>
       <c r="C36">
-        <v>-0.009002344733405708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007904872980757795</v>
+      </c>
+      <c r="D36">
+        <v>0.04971086317625976</v>
+      </c>
+      <c r="E36">
+        <v>-0.04055981322781333</v>
+      </c>
+      <c r="F36">
+        <v>-0.01190494473818499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.003480937731701505</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.0007946807588302194</v>
+      </c>
+      <c r="D37">
+        <v>0.004531592257959204</v>
+      </c>
+      <c r="E37">
+        <v>0.001231370789317885</v>
+      </c>
+      <c r="F37">
+        <v>-0.0002300596653233288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.08836555242485258</v>
+        <v>-0.08236820701720172</v>
       </c>
       <c r="C39">
-        <v>-0.01876247139163293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01370135099035714</v>
+      </c>
+      <c r="D39">
+        <v>0.1530689646409334</v>
+      </c>
+      <c r="E39">
+        <v>-0.02703219644536304</v>
+      </c>
+      <c r="F39">
+        <v>-0.004737937920059407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04408600152291334</v>
+        <v>-0.04944062411145809</v>
       </c>
       <c r="C40">
-        <v>-0.01268311545039618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01072523340177051</v>
+      </c>
+      <c r="D40">
+        <v>0.05717717000415176</v>
+      </c>
+      <c r="E40">
+        <v>0.01164820265270034</v>
+      </c>
+      <c r="F40">
+        <v>0.004585554610074884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02776021556674366</v>
+        <v>-0.02948105527591482</v>
       </c>
       <c r="C41">
-        <v>-0.008870898548845372</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008128095160504049</v>
+      </c>
+      <c r="D41">
+        <v>0.02509532810246114</v>
+      </c>
+      <c r="E41">
+        <v>0.005129406959191222</v>
+      </c>
+      <c r="F41">
+        <v>-0.00569693709468284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04227067407447601</v>
+        <v>-0.0411435485866349</v>
       </c>
       <c r="C43">
-        <v>-0.009920841842402606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.008803876281868154</v>
+      </c>
+      <c r="D43">
+        <v>0.03526928667914222</v>
+      </c>
+      <c r="E43">
+        <v>0.00377594320858718</v>
+      </c>
+      <c r="F43">
+        <v>-0.02427478496566953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05449341383852065</v>
+        <v>-0.06273370682902557</v>
       </c>
       <c r="C44">
-        <v>-0.02038291478239669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.01786032371288332</v>
+      </c>
+      <c r="D44">
+        <v>0.08614684465850177</v>
+      </c>
+      <c r="E44">
+        <v>-0.2312596522189016</v>
+      </c>
+      <c r="F44">
+        <v>0.07775885790936238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002099383628792737</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>5.312869980958863e-05</v>
+      </c>
+      <c r="D45">
+        <v>-4.029183517234325e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0005120237406901651</v>
+      </c>
+      <c r="F45">
+        <v>0.0003018340505006784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02556169544824173</v>
+        <v>-0.02620450419773188</v>
       </c>
       <c r="C46">
-        <v>-0.005488192157515255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.004416780948067848</v>
+      </c>
+      <c r="D46">
+        <v>0.02880229899907698</v>
+      </c>
+      <c r="E46">
+        <v>0.0003571792655438138</v>
+      </c>
+      <c r="F46">
+        <v>-0.03271878173985224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05301890504901223</v>
+        <v>-0.05229796998097469</v>
       </c>
       <c r="C47">
-        <v>-0.007596775471818927</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.005795041033499699</v>
+      </c>
+      <c r="D47">
+        <v>0.0225145870647208</v>
+      </c>
+      <c r="E47">
+        <v>0.01131614258682292</v>
+      </c>
+      <c r="F47">
+        <v>-0.05363892552055825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04810618824554876</v>
+        <v>-0.05184562773010257</v>
       </c>
       <c r="C48">
-        <v>-0.006295770716878792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.003977792056244988</v>
+      </c>
+      <c r="D48">
+        <v>0.06489525352157118</v>
+      </c>
+      <c r="E48">
+        <v>-0.01011965312180983</v>
+      </c>
+      <c r="F48">
+        <v>0.02304043494026749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1937878771886757</v>
+        <v>-0.1968779549224254</v>
       </c>
       <c r="C49">
-        <v>-0.03065672593342874</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02631764143857157</v>
+      </c>
+      <c r="D49">
+        <v>-0.009071139264624254</v>
+      </c>
+      <c r="E49">
+        <v>-0.04066629364543468</v>
+      </c>
+      <c r="F49">
+        <v>0.03591157038535274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05008128190240378</v>
+        <v>-0.05217510745213811</v>
       </c>
       <c r="C50">
-        <v>-0.01518111064972514</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01355755764760267</v>
+      </c>
+      <c r="D50">
+        <v>0.03404674624803657</v>
+      </c>
+      <c r="E50">
+        <v>-0.02223298520936978</v>
+      </c>
+      <c r="F50">
+        <v>-0.01950026970442828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1464018433366704</v>
+        <v>-0.1403641542751396</v>
       </c>
       <c r="C52">
-        <v>-0.0260652221537309</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.02214063979585853</v>
+      </c>
+      <c r="D52">
+        <v>0.04401155620318022</v>
+      </c>
+      <c r="E52">
+        <v>-0.05941531901697237</v>
+      </c>
+      <c r="F52">
+        <v>-0.02366290200536195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1774993239645002</v>
+        <v>-0.1692004775140073</v>
       </c>
       <c r="C53">
-        <v>-0.03191940874615584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.02817186134919567</v>
+      </c>
+      <c r="D53">
+        <v>0.01898877704190892</v>
+      </c>
+      <c r="E53">
+        <v>-0.1178641151710779</v>
+      </c>
+      <c r="F53">
+        <v>-0.01444379119314775</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01332385414546556</v>
+        <v>-0.01656234265567971</v>
       </c>
       <c r="C54">
-        <v>-0.01157571786648997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01085506914187722</v>
+      </c>
+      <c r="D54">
+        <v>0.03585322597773415</v>
+      </c>
+      <c r="E54">
+        <v>-0.008449187916721437</v>
+      </c>
+      <c r="F54">
+        <v>-0.01501348435648514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1204594792702652</v>
+        <v>-0.1175596234812246</v>
       </c>
       <c r="C55">
-        <v>-0.02672791668110784</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.02382256581348317</v>
+      </c>
+      <c r="D55">
+        <v>0.02094997309310053</v>
+      </c>
+      <c r="E55">
+        <v>-0.07116129181238152</v>
+      </c>
+      <c r="F55">
+        <v>-0.0468330354411385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1814429577995909</v>
+        <v>-0.1749803578437343</v>
       </c>
       <c r="C56">
-        <v>-0.02935999731554675</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.02611456016210959</v>
+      </c>
+      <c r="D56">
+        <v>0.007581703719412598</v>
+      </c>
+      <c r="E56">
+        <v>-0.07750779222068528</v>
+      </c>
+      <c r="F56">
+        <v>-0.04045214509293447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04466510791999911</v>
+        <v>-0.04473646751120826</v>
       </c>
       <c r="C58">
-        <v>-0.00409457277930273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.0001311174437763045</v>
+      </c>
+      <c r="D58">
+        <v>0.1005046335790107</v>
+      </c>
+      <c r="E58">
+        <v>0.01071070152724195</v>
+      </c>
+      <c r="F58">
+        <v>-0.03864264972457152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.178130333892029</v>
+        <v>-0.1824246703991017</v>
       </c>
       <c r="C59">
-        <v>-0.03246038271375613</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.03381943650425909</v>
+      </c>
+      <c r="D59">
+        <v>-0.2011814404428613</v>
+      </c>
+      <c r="E59">
+        <v>0.08223302275297691</v>
+      </c>
+      <c r="F59">
+        <v>-0.007625153078042598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2182330500175411</v>
+        <v>-0.2139586329343294</v>
       </c>
       <c r="C60">
-        <v>-0.009466634730113992</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.004988324042908214</v>
+      </c>
+      <c r="D60">
+        <v>0.01817643805636112</v>
+      </c>
+      <c r="E60">
+        <v>0.01510135573955419</v>
+      </c>
+      <c r="F60">
+        <v>-0.01029867284849625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.06849701792607885</v>
+        <v>-0.06530113355449965</v>
       </c>
       <c r="C61">
-        <v>-0.0147574382751793</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01017878171544964</v>
+      </c>
+      <c r="D61">
+        <v>0.1203318458769824</v>
+      </c>
+      <c r="E61">
+        <v>-0.01406146674277808</v>
+      </c>
+      <c r="F61">
+        <v>-0.01371946549144758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1696890586980525</v>
+        <v>-0.1659565080737282</v>
       </c>
       <c r="C62">
-        <v>-0.03126877598994806</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.02785890959352686</v>
+      </c>
+      <c r="D62">
+        <v>0.01073764754372813</v>
+      </c>
+      <c r="E62">
+        <v>-0.0667904895013124</v>
+      </c>
+      <c r="F62">
+        <v>-0.0471751469731325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04031028414851487</v>
+        <v>-0.04538025798433566</v>
       </c>
       <c r="C63">
-        <v>-0.005276800150000293</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.003142367215450471</v>
+      </c>
+      <c r="D63">
+        <v>0.0731623059108867</v>
+      </c>
+      <c r="E63">
+        <v>-0.01291418934300799</v>
+      </c>
+      <c r="F63">
+        <v>-0.02173659471725535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1125626990298392</v>
+        <v>-0.1103659085254007</v>
       </c>
       <c r="C64">
-        <v>-0.02044060568931615</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01655454158641096</v>
+      </c>
+      <c r="D64">
+        <v>0.05598912990835991</v>
+      </c>
+      <c r="E64">
+        <v>-0.03347821618510986</v>
+      </c>
+      <c r="F64">
+        <v>-0.004419275929517862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1530501639684741</v>
+        <v>-0.1571396709673953</v>
       </c>
       <c r="C65">
-        <v>-0.04600200969335795</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04377364891907471</v>
+      </c>
+      <c r="D65">
+        <v>-0.04346613058565008</v>
+      </c>
+      <c r="E65">
+        <v>-0.05961523309796433</v>
+      </c>
+      <c r="F65">
+        <v>-0.002416802374790922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1084771095663136</v>
+        <v>-0.1013438137769578</v>
       </c>
       <c r="C66">
-        <v>-0.01753105770667738</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01183080696205956</v>
+      </c>
+      <c r="D66">
+        <v>0.140934893816347</v>
+      </c>
+      <c r="E66">
+        <v>-0.02965494333217414</v>
+      </c>
+      <c r="F66">
+        <v>-0.003875329715855527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05754681167668665</v>
+        <v>-0.04889156824938473</v>
       </c>
       <c r="C67">
-        <v>-0.005826955122629304</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003534419252682107</v>
+      </c>
+      <c r="D67">
+        <v>0.06050217766752027</v>
+      </c>
+      <c r="E67">
+        <v>0.05329914934289883</v>
+      </c>
+      <c r="F67">
+        <v>-0.0699156007510692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1289930739649647</v>
+        <v>-0.1340531529295795</v>
       </c>
       <c r="C68">
-        <v>-0.04064786824395288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04390270350537399</v>
+      </c>
+      <c r="D68">
+        <v>-0.2538442122931062</v>
+      </c>
+      <c r="E68">
+        <v>0.04355346724834931</v>
+      </c>
+      <c r="F68">
+        <v>0.08442723220953731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03915922587942239</v>
+        <v>-0.0387820373638227</v>
       </c>
       <c r="C69">
-        <v>-0.003688854898206969</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.002530162923492511</v>
+      </c>
+      <c r="D69">
+        <v>0.01254863042476105</v>
+      </c>
+      <c r="E69">
+        <v>-0.01577469248608501</v>
+      </c>
+      <c r="F69">
+        <v>-0.05364599934957091</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.07159941717312956</v>
+        <v>-0.07260646972867389</v>
       </c>
       <c r="C70">
-        <v>0.02151484566886101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02326527233470272</v>
+      </c>
+      <c r="D70">
+        <v>0.05455765419058307</v>
+      </c>
+      <c r="E70">
+        <v>0.343003886271008</v>
+      </c>
+      <c r="F70">
+        <v>-0.1761043930576796</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1505988176860263</v>
+        <v>-0.1566042213109394</v>
       </c>
       <c r="C71">
-        <v>-0.04731903527187516</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04997614007016086</v>
+      </c>
+      <c r="D71">
+        <v>-0.2587981583347357</v>
+      </c>
+      <c r="E71">
+        <v>0.04750701175979644</v>
+      </c>
+      <c r="F71">
+        <v>0.0934442122631285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1401619258052405</v>
+        <v>-0.1462058833234056</v>
       </c>
       <c r="C72">
-        <v>-0.0355219296162463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03368840985539837</v>
+      </c>
+      <c r="D72">
+        <v>0.01260652085848118</v>
+      </c>
+      <c r="E72">
+        <v>-0.06401302739118662</v>
+      </c>
+      <c r="F72">
+        <v>-0.03603329465985323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1931960088301867</v>
+        <v>-0.2000264689399285</v>
       </c>
       <c r="C73">
-        <v>-0.02388733751731885</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01813998298706105</v>
+      </c>
+      <c r="D73">
+        <v>0.03258466494548098</v>
+      </c>
+      <c r="E73">
+        <v>-0.07104690701353045</v>
+      </c>
+      <c r="F73">
+        <v>-0.06323457972486175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0888809111462234</v>
+        <v>-0.08858099816613703</v>
       </c>
       <c r="C74">
-        <v>-0.01777120957075154</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01555434837485267</v>
+      </c>
+      <c r="D74">
+        <v>0.02322158143193292</v>
+      </c>
+      <c r="E74">
+        <v>-0.08057010772142936</v>
+      </c>
+      <c r="F74">
+        <v>-0.02101984512240457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1263047969235707</v>
+        <v>-0.1191840531989067</v>
       </c>
       <c r="C75">
-        <v>-0.03582760223600574</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03213672942265544</v>
+      </c>
+      <c r="D75">
+        <v>0.03589663522957393</v>
+      </c>
+      <c r="E75">
+        <v>-0.06598355930537757</v>
+      </c>
+      <c r="F75">
+        <v>-0.06407129913384946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07527018011205976</v>
+        <v>-0.08851625145550238</v>
       </c>
       <c r="C77">
-        <v>-0.01436278497369504</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01136876939966261</v>
+      </c>
+      <c r="D77">
+        <v>0.1220166083852383</v>
+      </c>
+      <c r="E77">
+        <v>-0.05579163384248459</v>
+      </c>
+      <c r="F77">
+        <v>0.01969063835535225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09556835344525243</v>
+        <v>-0.09773898875158001</v>
       </c>
       <c r="C78">
-        <v>-0.04389799510396093</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.04091504884512522</v>
+      </c>
+      <c r="D78">
+        <v>0.1439402206274691</v>
+      </c>
+      <c r="E78">
+        <v>-0.05672927995502408</v>
+      </c>
+      <c r="F78">
+        <v>0.02183030514540871</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1686432359716901</v>
+        <v>-0.1640408589786227</v>
       </c>
       <c r="C79">
-        <v>-0.0346900968977423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.0306630797905133</v>
+      </c>
+      <c r="D79">
+        <v>0.02932424092695875</v>
+      </c>
+      <c r="E79">
+        <v>-0.04257379368303108</v>
+      </c>
+      <c r="F79">
+        <v>-0.04265884685120259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07833010908767361</v>
+        <v>-0.0756311879907621</v>
       </c>
       <c r="C80">
-        <v>-0.004638902433364902</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.00205308267362269</v>
+      </c>
+      <c r="D80">
+        <v>0.05429683395181042</v>
+      </c>
+      <c r="E80">
+        <v>0.01975778743778192</v>
+      </c>
+      <c r="F80">
+        <v>-0.04654359501901259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1146349065407832</v>
+        <v>-0.108214200928954</v>
       </c>
       <c r="C81">
-        <v>-0.03723720396202031</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03514802438245173</v>
+      </c>
+      <c r="D81">
+        <v>0.004947893528325702</v>
+      </c>
+      <c r="E81">
+        <v>-0.04661984315660397</v>
+      </c>
+      <c r="F81">
+        <v>-0.06833329909688658</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.160298210326959</v>
+        <v>-0.1588222378965415</v>
       </c>
       <c r="C82">
-        <v>-0.03435739887142878</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.03091633404805166</v>
+      </c>
+      <c r="D82">
+        <v>-0.003228240988837971</v>
+      </c>
+      <c r="E82">
+        <v>-0.1000676750000762</v>
+      </c>
+      <c r="F82">
+        <v>-0.00949557082297732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05625309568497357</v>
+        <v>-0.05167937589408313</v>
       </c>
       <c r="C83">
-        <v>-0.006887689676155411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004550181903278722</v>
+      </c>
+      <c r="D83">
+        <v>0.05367298016312164</v>
+      </c>
+      <c r="E83">
+        <v>0.01684989078483818</v>
+      </c>
+      <c r="F83">
+        <v>-0.003811760496015124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05129914991295624</v>
+        <v>-0.04866847441060369</v>
       </c>
       <c r="C84">
-        <v>-0.0132261591662479</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01077589240164948</v>
+      </c>
+      <c r="D84">
+        <v>0.07241187704523912</v>
+      </c>
+      <c r="E84">
+        <v>-0.00856938293870829</v>
+      </c>
+      <c r="F84">
+        <v>-0.002950750734144734</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1398461045371261</v>
+        <v>-0.1345631627258409</v>
       </c>
       <c r="C85">
-        <v>-0.03788656827712995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03452058530053831</v>
+      </c>
+      <c r="D85">
+        <v>0.02164053802392807</v>
+      </c>
+      <c r="E85">
+        <v>-0.08761080797656394</v>
+      </c>
+      <c r="F85">
+        <v>-0.02420184148976922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08383489518113467</v>
+        <v>-0.08163343823811735</v>
       </c>
       <c r="C86">
-        <v>0.002212960790806735</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006509251238383104</v>
+      </c>
+      <c r="D86">
+        <v>0.09508528841833803</v>
+      </c>
+      <c r="E86">
+        <v>0.5682830558245257</v>
+      </c>
+      <c r="F86">
+        <v>-0.5601847060784813</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08567523110480829</v>
+        <v>-0.08695193257636999</v>
       </c>
       <c r="C87">
-        <v>-0.02815313782010222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02379474877710066</v>
+      </c>
+      <c r="D87">
+        <v>0.08347185808936461</v>
+      </c>
+      <c r="E87">
+        <v>-0.009611343353009942</v>
+      </c>
+      <c r="F87">
+        <v>0.1174580517073891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06260315290533348</v>
+        <v>-0.06135262225580462</v>
       </c>
       <c r="C88">
-        <v>-0.007466681120408766</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.004969024652312453</v>
+      </c>
+      <c r="D88">
+        <v>0.06583084725073977</v>
+      </c>
+      <c r="E88">
+        <v>-0.01804599033642657</v>
+      </c>
+      <c r="F88">
+        <v>-0.0155107547806741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1362887955728145</v>
+        <v>-0.1407339498742471</v>
       </c>
       <c r="C89">
-        <v>-0.02034399097073377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0237310824883109</v>
+      </c>
+      <c r="D89">
+        <v>-0.2274521421179103</v>
+      </c>
+      <c r="E89">
+        <v>0.04349539492167295</v>
+      </c>
+      <c r="F89">
+        <v>0.09044117409776394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1627717122978409</v>
+        <v>-0.171737881738886</v>
       </c>
       <c r="C90">
-        <v>-0.04385231561576754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.04721665424972366</v>
+      </c>
+      <c r="D90">
+        <v>-0.2506103844448502</v>
+      </c>
+      <c r="E90">
+        <v>0.07107041683741948</v>
+      </c>
+      <c r="F90">
+        <v>0.1233390158197032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.126631866690548</v>
+        <v>-0.1207215977850922</v>
       </c>
       <c r="C91">
-        <v>-0.02861320556625356</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02640506241629787</v>
+      </c>
+      <c r="D91">
+        <v>-0.009783662650308262</v>
+      </c>
+      <c r="E91">
+        <v>-0.03451876307719454</v>
+      </c>
+      <c r="F91">
+        <v>-0.09943340850085471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1605973348356745</v>
+        <v>-0.1633721129001861</v>
       </c>
       <c r="C92">
-        <v>-0.03437178164367429</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.03751791998608395</v>
+      </c>
+      <c r="D92">
+        <v>-0.2851839348152225</v>
+      </c>
+      <c r="E92">
+        <v>0.05663373379476698</v>
+      </c>
+      <c r="F92">
+        <v>0.08295096020743833</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1663020350798529</v>
+        <v>-0.174828060225561</v>
       </c>
       <c r="C93">
-        <v>-0.04002193347688891</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.04222098928921819</v>
+      </c>
+      <c r="D93">
+        <v>-0.2399354272993536</v>
+      </c>
+      <c r="E93">
+        <v>0.02979771537890869</v>
+      </c>
+      <c r="F93">
+        <v>0.06048028683220465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1227317568288323</v>
+        <v>-0.1167770040947545</v>
       </c>
       <c r="C94">
-        <v>-0.03077021055633963</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02694730108301435</v>
+      </c>
+      <c r="D94">
+        <v>0.04627367456871263</v>
+      </c>
+      <c r="E94">
+        <v>-0.06160691290216989</v>
+      </c>
+      <c r="F94">
+        <v>-0.06310496532953608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1236983024678688</v>
+        <v>-0.126460050804937</v>
       </c>
       <c r="C95">
-        <v>-0.0133825535202402</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.008001556825375209</v>
+      </c>
+      <c r="D95">
+        <v>0.1167639451222489</v>
+      </c>
+      <c r="E95">
+        <v>-0.01439694733352762</v>
+      </c>
+      <c r="F95">
+        <v>-0.03808462347151349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1768268597240927</v>
+        <v>-0.1577449234353206</v>
       </c>
       <c r="C96">
-        <v>0.9784134222555816</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9807235345564113</v>
+      </c>
+      <c r="D96">
+        <v>-0.05714607531101125</v>
+      </c>
+      <c r="E96">
+        <v>-0.0623211822723891</v>
+      </c>
+      <c r="F96">
+        <v>-0.01146230401604607</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.191536732452302</v>
+        <v>-0.1943764683338456</v>
       </c>
       <c r="C97">
-        <v>-0.007174731386085808</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.002298371527760093</v>
+      </c>
+      <c r="D97">
+        <v>-0.01741241853945586</v>
+      </c>
+      <c r="E97">
+        <v>0.1554650406885563</v>
+      </c>
+      <c r="F97">
+        <v>-0.08540486969721774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1915298703039797</v>
+        <v>-0.1984062211926446</v>
       </c>
       <c r="C98">
-        <v>-0.01927270549010549</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.01383166349933505</v>
+      </c>
+      <c r="D98">
+        <v>0.01531784413956997</v>
+      </c>
+      <c r="E98">
+        <v>0.1270796873835613</v>
+      </c>
+      <c r="F98">
+        <v>0.04507160711013254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05499582859382688</v>
+        <v>-0.05530418905183807</v>
       </c>
       <c r="C99">
-        <v>0.0008714441595513538</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.002907988384814787</v>
+      </c>
+      <c r="D99">
+        <v>0.05681982555196242</v>
+      </c>
+      <c r="E99">
+        <v>-0.007770523167625226</v>
+      </c>
+      <c r="F99">
+        <v>-0.003569174351103905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1187586770658468</v>
+        <v>-0.1112499803658238</v>
       </c>
       <c r="C100">
-        <v>0.033836983546793</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.04080779594980326</v>
+      </c>
+      <c r="D100">
+        <v>0.3193971592261527</v>
+      </c>
+      <c r="E100">
+        <v>0.5325388467087284</v>
+      </c>
+      <c r="F100">
+        <v>0.6812599078999575</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02541496645942477</v>
+        <v>-0.02758377907872225</v>
       </c>
       <c r="C101">
-        <v>-0.009987850397809203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.00944081643593433</v>
+      </c>
+      <c r="D101">
+        <v>0.04215697286654349</v>
+      </c>
+      <c r="E101">
+        <v>0.005713947401005465</v>
+      </c>
+      <c r="F101">
+        <v>-0.02254229321672794</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
